--- a/wynikiLocalSearch.xlsx
+++ b/wynikiLocalSearch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Radek\source\repos\PEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B99F2B-E9CB-4E74-B3E2-5E19452E4CA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1A18A6-DD74-474B-A0A3-BA72F225EF27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{EBB0156E-4CE0-4697-B5EF-E4141655CAF4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{EBB0156E-4CE0-4697-B5EF-E4141655CAF4}"/>
   </bookViews>
   <sheets>
     <sheet name="TABU" sheetId="1" r:id="rId1"/>
@@ -715,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80723DF-DD26-49EC-BF58-7715F7A7A387}">
   <dimension ref="A3:P35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17:S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1951,8 +1951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A797B2F2-4ED0-45B4-A1B0-B4DE932B6DC4}">
   <dimension ref="B6:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/wynikiLocalSearch.xlsx
+++ b/wynikiLocalSearch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Radek\source\repos\PEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1A18A6-DD74-474B-A0A3-BA72F225EF27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA9DE2E-9D57-42ED-A09E-8BE5AAA2A595}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{EBB0156E-4CE0-4697-B5EF-E4141655CAF4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{EBB0156E-4CE0-4697-B5EF-E4141655CAF4}"/>
   </bookViews>
   <sheets>
     <sheet name="TABU" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="95">
   <si>
     <t>data17</t>
   </si>
@@ -255,77 +255,77 @@
     <t>4 i 8</t>
   </si>
   <si>
+    <t>Poczatkowa</t>
+  </si>
+  <si>
+    <t>Minimalna</t>
+  </si>
+  <si>
+    <t>Liczba iteracji</t>
+  </si>
+  <si>
+    <t>Chlodzenie</t>
+  </si>
+  <si>
+    <t>Sasiedztwo</t>
+  </si>
+  <si>
+    <t>z czyszczeniem+false na true</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Greedy+false na true</t>
+  </si>
+  <si>
+    <t>Adnotacje</t>
+  </si>
+  <si>
+    <t>Błąd względny</t>
+  </si>
+  <si>
+    <t>data18</t>
+  </si>
+  <si>
+    <t>data16</t>
+  </si>
+  <si>
+    <t>data15</t>
+  </si>
+  <si>
+    <t>data14</t>
+  </si>
+  <si>
+    <t>data13</t>
+  </si>
+  <si>
+    <t>data11</t>
+  </si>
+  <si>
+    <t>data10</t>
+  </si>
+  <si>
+    <t>data12</t>
+  </si>
+  <si>
+    <t>SMALL TSP</t>
+  </si>
+  <si>
+    <t>Algorytm</t>
+  </si>
+  <si>
+    <t>kro124p</t>
+  </si>
+  <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>Poczatkowa</t>
-  </si>
-  <si>
-    <t>Minimalna</t>
-  </si>
-  <si>
-    <t>Liczba iteracji</t>
-  </si>
-  <si>
-    <t>Chlodzenie</t>
-  </si>
-  <si>
-    <t>Sasiedztwo</t>
-  </si>
-  <si>
-    <t>z czyszczeniem+false na true</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Greedy+false na true</t>
-  </si>
-  <si>
-    <t>Adnotacje</t>
-  </si>
-  <si>
-    <t>Błąd względny</t>
-  </si>
-  <si>
-    <t>data18</t>
-  </si>
-  <si>
-    <t>data16</t>
-  </si>
-  <si>
-    <t>data15</t>
-  </si>
-  <si>
-    <t>data14</t>
-  </si>
-  <si>
-    <t>data13</t>
-  </si>
-  <si>
-    <t>data11</t>
-  </si>
-  <si>
-    <t>data10</t>
-  </si>
-  <si>
-    <t>data12</t>
-  </si>
-  <si>
-    <t>SMALL TSP</t>
-  </si>
-  <si>
-    <t>Algorytm</t>
-  </si>
-  <si>
-    <t>kro124p</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,8 +352,152 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,8 +510,187 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -375,11 +698,159 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -393,15 +864,59 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% — akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — akcent 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — akcent 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — akcent 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — akcent 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — akcent 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% — akcent 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — akcent 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — akcent 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — akcent 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — akcent 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — akcent 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% — akcent 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% — akcent 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% — akcent 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% — akcent 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% — akcent 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% — akcent 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akcent 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akcent 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akcent 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akcent 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akcent 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akcent 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Dane wejściowe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Dane wyjściowe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Dobry" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Komórka połączona" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Komórka zaznaczona" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Nagłówek 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Nagłówek 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Nagłówek 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Nagłówek 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Neutralny" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Obliczenia" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Suma" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Tekst objaśnienia" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Tekst ostrzeżenia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Tytuł" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Uwaga" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Zły" xfId="7" builtinId="27" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -715,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80723DF-DD26-49EC-BF58-7715F7A7A387}">
   <dimension ref="A3:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17:S26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M29" sqref="B29:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,19 +1251,19 @@
     <col min="16" max="16" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-    </row>
-    <row r="4" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+    </row>
+    <row r="4" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
       <c r="E4" t="s">
         <v>58</v>
       </c>
@@ -774,13 +1289,13 @@
         <v>64</v>
       </c>
       <c r="M4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>18</v>
       </c>
@@ -791,7 +1306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>2085</v>
       </c>
@@ -830,7 +1345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>2707</v>
       </c>
@@ -869,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>1272</v>
       </c>
@@ -908,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>937</v>
       </c>
@@ -947,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>1610</v>
       </c>
@@ -986,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>699</v>
       </c>
@@ -1025,11 +1540,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
       <c r="B12" s="1">
         <v>25395</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D12" t="s">
@@ -1064,11 +1582,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>6942</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D13" t="s">
@@ -1103,11 +1621,11 @@
         <v>7.2025352924229324E-4</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>1273</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="10" t="s">
         <v>57</v>
       </c>
       <c r="D14" t="s">
@@ -1142,15 +1660,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+    <row r="15" spans="1:16" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>18</v>
       </c>
@@ -1163,9 +1681,6 @@
       <c r="M16" s="7"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>73</v>
-      </c>
       <c r="B17" s="1">
         <v>39</v>
       </c>
@@ -1205,13 +1720,10 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>73</v>
-      </c>
       <c r="B18" s="1">
         <v>1286</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D18" t="s">
@@ -1246,17 +1758,17 @@
         <v>0</v>
       </c>
       <c r="N18" t="s">
+        <v>78</v>
+      </c>
+      <c r="O18" t="s">
         <v>79</v>
-      </c>
-      <c r="O18" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>1473</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D19" t="s">
@@ -1291,17 +1803,17 @@
         <v>0</v>
       </c>
       <c r="N19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>1530</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D20" t="s">
@@ -1328,19 +1840,22 @@
       <c r="K20">
         <v>1</v>
       </c>
-      <c r="L20">
-        <v>1532</v>
+      <c r="L20" s="4">
+        <v>1530</v>
       </c>
       <c r="M20" s="7">
         <f t="shared" si="1"/>
-        <v>1.30718954248366E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>94</v>
+      </c>
       <c r="B21" s="1">
         <v>5620</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D21" t="s">
@@ -1375,7 +1890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>1613</v>
       </c>
@@ -1418,7 +1933,7 @@
       <c r="B23" s="1">
         <v>14422</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D23" t="s">
@@ -1457,7 +1972,7 @@
       <c r="B24" s="1">
         <v>6905</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D24" t="s">
@@ -1485,18 +2000,18 @@
         <v>2</v>
       </c>
       <c r="L24" s="5">
-        <v>7092</v>
+        <v>7068</v>
       </c>
       <c r="M24" s="7">
         <f t="shared" si="1"/>
-        <v>2.7081824764663288E-2</v>
+        <v>2.3606082548877624E-2</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>1608</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D25" t="s">
@@ -1524,11 +2039,11 @@
         <v>2</v>
       </c>
       <c r="L25" s="5">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="M25" s="7">
         <f t="shared" si="1"/>
-        <v>3.1716417910447763E-2</v>
+        <v>3.109452736318408E-2</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -1574,7 +2089,7 @@
       <c r="B27" s="1">
         <v>38673</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D27" t="s">
@@ -1613,7 +2128,7 @@
       <c r="B28" s="1">
         <v>1950</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D28" t="s">
@@ -1688,10 +2203,13 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
       <c r="B30" s="1">
         <v>2755</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D30" t="s">
@@ -1951,8 +2469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A797B2F2-4ED0-45B4-A1B0-B4DE932B6DC4}">
   <dimension ref="B6:O48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1967,37 +2485,37 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
         <v>92</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J6" t="s">
-        <v>93</v>
       </c>
       <c r="K6" t="s">
         <v>64</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
@@ -2016,10 +2534,10 @@
         <v>212</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K8" s="4">
         <v>212</v>
@@ -2034,10 +2552,10 @@
         <v>202</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K9" s="4">
         <v>202</v>
@@ -2052,10 +2570,10 @@
         <v>264</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K10" s="4">
         <v>264</v>
@@ -2070,10 +2588,10 @@
         <v>269</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K11" s="4">
         <v>269</v>
@@ -2088,10 +2606,10 @@
         <v>125</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K12">
         <v>148</v>
@@ -2106,10 +2624,10 @@
         <v>291</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K13" s="4">
         <v>291</v>
@@ -2124,10 +2642,10 @@
         <v>156</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K14">
         <v>191</v>
@@ -2142,10 +2660,10 @@
         <v>187</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K15">
         <v>209</v>
@@ -2156,11 +2674,11 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
@@ -2285,7 +2803,7 @@
       <c r="B24" s="1">
         <v>25395</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D24" t="s">
@@ -2303,7 +2821,7 @@
       <c r="B25" s="1">
         <v>6942</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D25" t="s">
@@ -2336,11 +2854,11 @@
       </c>
     </row>
     <row r="27" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
       <c r="K27" s="5"/>
       <c r="L27" s="7"/>
     </row>
@@ -2379,7 +2897,7 @@
       <c r="B30" s="1">
         <v>1286</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D30" t="s">
@@ -2393,14 +2911,14 @@
         <v>1.2441679626749611E-2</v>
       </c>
       <c r="O30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>1473</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D31" t="s">
@@ -2414,14 +2932,14 @@
         <v>5.0916496945010187E-2</v>
       </c>
       <c r="O31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>1530</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D32" t="s">
@@ -2439,7 +2957,7 @@
       <c r="B33" s="1">
         <v>5620</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D33" t="s">
@@ -2464,18 +2982,18 @@
         <v>43</v>
       </c>
       <c r="K34" s="5">
-        <v>1615</v>
+        <v>1653</v>
       </c>
       <c r="L34" s="7">
         <f t="shared" si="2"/>
-        <v>1.2399256044637321E-3</v>
+        <v>2.4798512089274645E-2</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>14422</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D35" t="s">
@@ -2493,36 +3011,36 @@
       <c r="B36" s="1">
         <v>6905</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D36" t="s">
         <v>45</v>
       </c>
       <c r="K36" s="5">
-        <v>7308</v>
+        <v>7119</v>
       </c>
       <c r="L36" s="7">
         <f t="shared" si="2"/>
-        <v>5.8363504706734251E-2</v>
+        <v>3.0992034757422158E-2</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>1608</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D37" t="s">
         <v>55</v>
       </c>
       <c r="K37" s="5">
-        <v>1672</v>
+        <v>1632</v>
       </c>
       <c r="L37" s="7">
         <f t="shared" si="2"/>
-        <v>3.9800995024875621E-2</v>
+        <v>1.4925373134328358E-2</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
@@ -2553,30 +3071,30 @@
       <c r="D39" t="s">
         <v>47</v>
       </c>
-      <c r="K39" s="5">
-        <v>38817</v>
+      <c r="K39" s="13">
+        <v>39762</v>
       </c>
       <c r="L39" s="7">
         <f t="shared" si="2"/>
-        <v>3.7235280428205724E-3</v>
+        <v>2.8159180823830579E-2</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>1950</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D40" t="s">
         <v>48</v>
       </c>
       <c r="K40" s="5">
-        <v>2093</v>
+        <v>2113</v>
       </c>
       <c r="L40" s="7">
         <f t="shared" si="2"/>
-        <v>7.3333333333333334E-2</v>
+        <v>8.3589743589743595E-2</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
@@ -2587,32 +3105,32 @@
         <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K41" s="5">
-        <v>38230</v>
+        <v>38448</v>
       </c>
       <c r="L41" s="7">
         <f t="shared" si="2"/>
-        <v>5.5202870549268562E-2</v>
+        <v>6.1219983439138835E-2</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>2755</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D42" t="s">
         <v>50</v>
       </c>
       <c r="K42" s="5">
-        <v>3372</v>
+        <v>3340</v>
       </c>
       <c r="L42" s="7">
         <f t="shared" si="2"/>
-        <v>0.22395644283121596</v>
+        <v>0.21234119782214156</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
